--- a/medicine/Mort/Cimetière_Saint-Just/Cimetière_Saint-Just.xlsx
+++ b/medicine/Mort/Cimetière_Saint-Just/Cimetière_Saint-Just.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Just</t>
+          <t>Cimetière_Saint-Just</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière Saint-Just (en espagnol : Cementerio de San Justo, dont le nom complet est cementerio de la Sacramental de San Justo, San Millán y Santa Cruz), est un cimetière de Madrid en Espagne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Just</t>
+          <t>Cimetière_Saint-Just</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'étend sur la rive supérieure droite du Manzanares, dans l'arrondissement de Carabanchel. Il est séparé au sud par un mur du cimetière Saint-Isidore, autre célèbre nécropole de la capitale espagnole[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'étend sur la rive supérieure droite du Manzanares, dans l'arrondissement de Carabanchel. Il est séparé au sud par un mur du cimetière Saint-Isidore, autre célèbre nécropole de la capitale espagnole.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Just</t>
+          <t>Cimetière_Saint-Just</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa construction a débuté en 1846 sur des plans de l'architecte Wenceslao Gaviña y Vaquero.[2]. Il a été inauguré en août 1847.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa construction a débuté en 1846 sur des plans de l'architecte Wenceslao Gaviña y Vaquero.. Il a été inauguré en août 1847.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Just</t>
+          <t>Cimetière_Saint-Just</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Célébrités inhumées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Mariano José de Larra
 José de Espronceda
@@ -609,7 +627,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Just</t>
+          <t>Cimetière_Saint-Just</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -629,27 +647,202 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Dans le patio San Miguel
-Jenaro Pérez Villaamil
-Dans le patio San Justo
-Antonio Gil y Zárate
+          <t>Dans le patio San Miguel</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Jenaro Pérez Villaamil</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cimetière_Saint-Just</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_Saint-Just</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Détail des sépultures célèbres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dans le patio San Justo</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Antonio Gil y Zárate
 Adelardo López de Ayala
 Antonio María Esquivel
-Agustí Querol i Subirats.
-Dans le patio Santa Cruz
-Gregorio Marañón
+Agustí Querol i Subirats.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cimetière_Saint-Just</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_Saint-Just</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Détail des sépultures célèbres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dans le patio Santa Cruz</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Gregorio Marañón
 Juan de Ribera
-Valentín Carderera
-Dans le patio Santa Catalina
-Le torero Rafael Martín Vázquez.
-Dans le patio San Millán
-l'architecte Antonio López Aguado,
+Valentín Carderera</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cimetière_Saint-Just</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_Saint-Just</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Détail des sépultures célèbres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Dans le patio Santa Catalina</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Le torero Rafael Martín Vázquez.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cimetière_Saint-Just</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_Saint-Just</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Détail des sépultures célèbres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Dans le patio San Millán</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>l'architecte Antonio López Aguado,
 Le paysagiste Carlos de Haes
 Le général Cassola
 Le général François Achille Bazaine
-Le compositeur Baltasar Saldoni
-Dans le patio Santa Gertrudis
-Eduardo Rosales
+Le compositeur Baltasar Saldoni</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cimetière_Saint-Just</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_Saint-Just</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Détail des sépultures célèbres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Dans le patio Santa Gertrudis</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Eduardo Rosales
 Eduardo Chicharro y Agüera
 Emilio Arrieta
 Federico Chueca
@@ -668,19 +861,155 @@
 Ramón Gómez de la Serna
 Juan Eugenio Hartzenbusch
 Pedro Sainz Rodríguez
-Manuel Tamayo y Baus
-Dans le patio de Notre Dame du Perpétuel Secours
-Alberto Martín-Artajo
+Manuel Tamayo y Baus</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cimetière_Saint-Just</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_Saint-Just</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Détail des sépultures célèbres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Dans le patio de Notre Dame du Perpétuel Secours</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Alberto Martín-Artajo
 Le journaliste Julio Camba
 Le poète Manuel Altolaguirre
-Les écrivains Ramón Menéndez Pidal, Anita Delgado et Carmen Conde
-Dans le patio du Saint-Sacrement
-Manuel Gómez-Moreno
-Sara Montiel
-Dans le patio de las Ánimas
-l'acteur Rafaela Aparicio
-Dans le patio de San José
-la danseuse Pastora Imperio.</t>
+Les écrivains Ramón Menéndez Pidal, Anita Delgado et Carmen Conde</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cimetière_Saint-Just</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_Saint-Just</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Détail des sépultures célèbres</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Dans le patio du Saint-Sacrement</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Manuel Gómez-Moreno
+Sara Montiel</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Cimetière_Saint-Just</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_Saint-Just</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Détail des sépultures célèbres</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Dans le patio de las Ánimas</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>l'acteur Rafaela Aparicio</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Cimetière_Saint-Just</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_Saint-Just</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Détail des sépultures célèbres</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Dans le patio de San José</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>la danseuse Pastora Imperio.</t>
         </is>
       </c>
     </row>
